--- a/Team-Data/2013-14/12-4-2013-14.xlsx
+++ b/Team-Data/2013-14/12-4-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M2" t="n">
         <v>22.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T2" t="n">
         <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -753,37 +820,37 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="n">
         <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>18</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -795,31 +862,31 @@
         <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>22</v>
@@ -941,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -968,7 +1035,7 @@
         <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>21</v>
@@ -986,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
         <v>27</v>
@@ -1120,22 +1187,22 @@
         <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1144,16 +1211,16 @@
         <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
@@ -1162,19 +1229,19 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>24</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
@@ -1332,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
@@ -1353,13 +1420,13 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>7</v>
       </c>
       <c r="BA5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1502,13 +1569,13 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1517,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1538,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -1576,103 +1643,103 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.294</v>
       </c>
       <c r="H7" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I7" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J7" t="n">
-        <v>83.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P7" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="AD7" t="n">
         <v>21</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
@@ -1681,46 +1748,46 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW7" t="n">
         <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1729,7 +1796,7 @@
         <v>27</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -1758,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.579</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P8" t="n">
         <v>21.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
         <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1851,13 +1918,13 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,52 +1933,52 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA8" t="n">
         <v>25</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.611</v>
+        <v>0.647</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="J9" t="n">
-        <v>85.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.378</v>
+        <v>0.385</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="R9" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
         <v>22.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.3</v>
+        <v>105.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2039,58 +2106,58 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>7</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
       </c>
       <c r="AY9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>23</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>24</v>
-      </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -2122,121 +2189,121 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.474</v>
+        <v>0.444</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="J10" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.453</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
         <v>19.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="O10" t="n">
-        <v>17.5</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>26.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.663</v>
       </c>
       <c r="R10" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44.1</v>
+        <v>43.5</v>
       </c>
       <c r="U10" t="n">
         <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W10" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="Z10" t="n">
         <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2260,19 +2327,19 @@
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
@@ -2406,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2418,10 +2485,10 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>26</v>
@@ -2442,16 +2509,16 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -2486,67 +2553,67 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.65</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.8</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>78.3</v>
+        <v>77.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.481</v>
+        <v>0.488</v>
       </c>
       <c r="L12" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M12" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
       <c r="O12" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P12" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.709</v>
+        <v>0.703</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="S12" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="T12" t="n">
-        <v>46.5</v>
+        <v>46.1</v>
       </c>
       <c r="U12" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="V12" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
@@ -2555,16 +2622,16 @@
         <v>20.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>108.1</v>
+        <v>109.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2579,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2588,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2603,22 +2670,22 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AV12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>18</v>
@@ -2627,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.895</v>
+        <v>0.889</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.359</v>
+        <v>0.367</v>
       </c>
       <c r="O13" t="n">
-        <v>17.9</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S13" t="n">
         <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="W13" t="n">
         <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
         <v>10.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,25 +2828,25 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
         <v>16</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2788,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2809,13 +2876,13 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.632</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2871,64 +2938,64 @@
         <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="M14" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.337</v>
+        <v>0.343</v>
       </c>
       <c r="O14" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y14" t="n">
         <v>3.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,34 +3034,34 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW14" t="n">
         <v>9</v>
       </c>
-      <c r="AW14" t="n">
-        <v>12</v>
-      </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
         <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -3125,7 +3192,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>4</v>
@@ -3140,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>27</v>
@@ -3149,22 +3216,22 @@
         <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
       </c>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
@@ -3182,7 +3249,7 @@
         <v>29</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
@@ -3304,16 +3371,16 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK16" t="n">
         <v>9</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,43 +3392,43 @@
         <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
         <v>19</v>
       </c>
       <c r="AT16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX16" t="n">
         <v>21</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>8.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -3501,10 +3568,10 @@
         <v>8</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,16 +3601,16 @@
         <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA17" t="n">
         <v>9</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>7</v>
       </c>
       <c r="BB17" t="n">
         <v>7</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.167</v>
+        <v>0.176</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="J18" t="n">
-        <v>81.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="L18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.382</v>
+        <v>0.386</v>
       </c>
       <c r="O18" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="P18" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="Q18" t="n">
         <v>0.779</v>
       </c>
       <c r="R18" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="S18" t="n">
         <v>29.2</v>
       </c>
       <c r="T18" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="U18" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>90.3</v>
+        <v>89.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,13 +3735,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3683,13 +3750,13 @@
         <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3698,31 +3765,31 @@
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>29</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3905,22 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3874,19 +3941,19 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3901,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -3942,97 +4009,97 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="H20" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>87</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="O20" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="R20" t="n">
+        <v>13</v>
+      </c>
+      <c r="S20" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
         <v>9</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="O20" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="R20" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="V20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="W20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="n">
         <v>3</v>
@@ -4041,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>22</v>
@@ -4050,25 +4117,25 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4083,19 +4150,19 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4220,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4244,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4262,13 +4329,13 @@
         <v>15</v>
       </c>
       <c r="AX21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY21" t="n">
         <v>11</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -4306,115 +4373,115 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.765</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M22" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.334</v>
+        <v>0.33</v>
       </c>
       <c r="O22" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S22" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
         <v>103.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
         <v>5</v>
       </c>
       <c r="AF22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="n">
         <v>4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
         <v>24</v>
       </c>
       <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
         <v>24</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4423,10 +4490,10 @@
         <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
@@ -4447,16 +4514,16 @@
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4578,7 +4645,7 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
@@ -4599,7 +4666,7 @@
         <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>22</v>
@@ -4617,7 +4684,7 @@
         <v>18</v>
       </c>
       <c r="AU23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV23" t="n">
         <v>28</v>
@@ -4626,19 +4693,19 @@
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
         <v>27</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4769,19 +4836,19 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4796,19 +4863,19 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW24" t="n">
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>13</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -4852,49 +4919,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>0.526</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J25" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M25" t="n">
         <v>25.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="O25" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.739</v>
       </c>
       <c r="R25" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
         <v>30.7</v>
@@ -4903,43 +4970,43 @@
         <v>41.1</v>
       </c>
       <c r="U25" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
         <v>20.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -4948,7 +5015,7 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4960,40 +5027,40 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
         <v>15</v>
@@ -5002,7 +5069,7 @@
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.842</v>
+        <v>0.833</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="J26" t="n">
-        <v>85.7</v>
+        <v>85</v>
       </c>
       <c r="K26" t="n">
         <v>0.453</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
         <v>23</v>
       </c>
       <c r="N26" t="n">
-        <v>0.41</v>
+        <v>0.413</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R26" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T26" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U26" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W26" t="n">
         <v>5.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>105</v>
+        <v>104.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5127,28 +5194,28 @@
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5166,13 +5233,13 @@
         <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5181,10 +5248,10 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5309,43 +5376,43 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
         <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV27" t="n">
         <v>2</v>
@@ -5363,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>23</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5524,22 +5591,22 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5682,7 +5749,7 @@
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5718,22 +5785,22 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2</v>
+        <v>0.211</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J30" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M30" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O30" t="n">
         <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.726</v>
+        <v>0.719</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
@@ -5813,16 +5880,16 @@
         <v>40.3</v>
       </c>
       <c r="U30" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V30" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5831,16 +5898,16 @@
         <v>21.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
@@ -5852,7 +5919,7 @@
         <v>28</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>27</v>
@@ -5861,7 +5928,7 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5879,7 +5946,7 @@
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5897,13 +5964,13 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>28</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>22</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
         <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -6040,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>18</v>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6067,10 +6134,10 @@
         <v>25</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6082,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6091,13 +6158,13 @@
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-4-2013-14</t>
+          <t>2013-12-04</t>
         </is>
       </c>
     </row>
